--- a/Optimization models (Pyomo)/CORDOBA/PDinsatisfecha.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/PDinsatisfecha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01CF9F-65E3-473A-929B-62CA98F9CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2195B2-732A-4118-939E-FC719E4EF5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{72018B49-CC7E-4A0E-9D10-AAA5D2FDB039}"/>
   </bookViews>
@@ -36,45 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
   <si>
     <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
   </si>
   <si>
     <t>Productos</t>
@@ -441,284 +405,284 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>8</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>11</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Optimization models (Pyomo)/CORDOBA/PDinsatisfecha.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/PDinsatisfecha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD44BCF-5CBC-45E7-929C-6F8C0D50D6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003E216-82ED-403B-866C-E6FF0ECFE53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{72018B49-CC7E-4A0E-9D10-AAA5D2FDB039}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{72018B49-CC7E-4A0E-9D10-AAA5D2FDB039}"/>
   </bookViews>
   <sheets>
     <sheet name="PDinsatisfecha" sheetId="1" r:id="rId1"/>
